--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>mnu</t>
   </si>
   <si>
-    <t>cpr</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
   </si>
   <si>
     <t>GL No</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>MUNT_NO</t>
@@ -162,31 +156,43 @@
     <t>INVC_PRFX_CD</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>six</t>
-  </si>
-  <si>
-    <t>seven</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>nine</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>unkown1</t>
+  </si>
+  <si>
+    <t>unkown2</t>
+  </si>
+  <si>
+    <t>unkown3</t>
+  </si>
+  <si>
+    <t>unkown4</t>
+  </si>
+  <si>
+    <t>unkown5</t>
+  </si>
+  <si>
+    <t>unkown6</t>
+  </si>
+  <si>
+    <t>unkown7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric </t>
+  </si>
+  <si>
+    <t>CPRRTP-9</t>
+  </si>
+  <si>
+    <t>CPRRTP-10</t>
+  </si>
+  <si>
+    <t>CPRRTP-11</t>
   </si>
 </sst>
 </file>
@@ -536,13 +542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.5703125" style="1" customWidth="1"/>
@@ -558,246 +564,247 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
